--- a/test_videos_with_labels/done/GX010108_d_labels.xlsx
+++ b/test_videos_with_labels/done/GX010108_d_labels.xlsx
@@ -5,12 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_video_results_augmented_mobile\tests\GX010108_d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_videos_with_labels\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496ABEFC-4FD4-45FF-9BDB-2B2EE66C0F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2461C936-58FE-4389-BBEF-4EF89AD0B8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="38400" yWindow="2250" windowWidth="14400" windowHeight="15600" xr2:uid="{6DB90D85-1B51-425A-BF9E-F1B146275295}"/>
   </bookViews>
   <sheets>
@@ -389,11 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1158" sqref="B1158"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A593" zoomScale="115" zoomScaleNormal="115" workbookViewId="1">
-      <selection activeCell="F609" sqref="F609"/>
+    <sheetView tabSelected="1" topLeftCell="A1088" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1101" sqref="B1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7208,7 +7204,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
@@ -7216,7 +7212,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -7224,7 +7220,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,7 +7228,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
@@ -7240,7 +7236,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
@@ -7248,7 +7244,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7368,7 +7364,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +7372,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
